--- a/config/apitestcase.xlsx
+++ b/config/apitestcase.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>方式为：get,post,put,delete等，不区分大小写</t>
@@ -38,6 +39,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>接口参数化关联：
@@ -62,6 +64,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>方式为：get,post,put,delete等，不区分大小写</t>
@@ -74,6 +77,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>接口参数化关联：
@@ -87,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>域名</t>
   </si>
@@ -176,6 +180,10 @@
   </si>
   <si>
     <t>topics/update</t>
+  </si>
+  <si>
+    <t>{"topicID":"topic_id"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -185,19 +193,18 @@
     "tab":"share",
     "content":"hhhdjs放假的时候",
 }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改主题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +217,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -218,6 +226,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -225,6 +234,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -233,346 +243,41 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -580,255 +285,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -844,65 +310,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1193,32 +619,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="8.22222222222222" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="6" customWidth="1"/>
     <col min="3" max="3" width="9" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.8888888888889" style="6" customWidth="1"/>
-    <col min="6" max="6" width="49.3333333333333" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.2222222222222" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.1111111111111" style="6" customWidth="1"/>
-    <col min="9" max="9" width="50.6666666666667" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="49.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="50.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1288,40 +714,39 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId3" display="http://127.0.0.1:5000/api/huace/"/>
-    <hyperlink ref="A3" r:id="rId3" display="http://127.0.0.1:5000/api/huace/" tooltip="http://127.0.0.1:5000/api/huace/"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="http://127.0.0.1:5000/api/huace/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="21.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="11.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="10.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="21.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="26.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="26.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="18.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="26.125" customWidth="1"/>
+    <col min="8" max="8" width="26.75" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1372,7 +797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="172.8" spans="1:8">
+    <row r="3" spans="1:9" ht="162">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1388,19 +813,19 @@
       <c r="F3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
+      <c r="G3" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="216" spans="1:8">
+    <row r="4" spans="1:9" ht="202.5">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1408,8 +833,8 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>28</v>
+      <c r="F4" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -1419,13 +844,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId3" display="http://49.233.108.117:3000/api/v1/" tooltip="http://49.233.108.117:3000/api/v1/"/>
-    <hyperlink ref="A3" r:id="rId3" display="http://49.233.108.117:3000/api/v1/"/>
-    <hyperlink ref="A4" r:id="rId3" display="http://49.233.108.117:3000/api/v1/"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="http://49.233.108.117:3000/api/v1/"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>